--- a/meeting_track.xlsx
+++ b/meeting_track.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,22 +24,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Meeting Tracking</t>
   </si>
   <si>
-    <t>Friday, Sept 22.</t>
+    <t>1 hr</t>
   </si>
   <si>
-    <t>1 hr</t>
+    <t>Wednesday, Sept 27</t>
+  </si>
+  <si>
+    <t>Friday, Sept 22</t>
+  </si>
+  <si>
+    <t>1.5 hr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,8 +81,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,25 +398,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D772CC27-2144-4512-AE4A-E226C9483EAC}">
-  <dimension ref="B2:D3"/>
+  <dimension ref="B2:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/meeting_track.xlsx
+++ b/meeting_track.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vv3383my\Documents\GitHub\Card-Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yb5243yv\Dropbox\Workspace - Java - 2017-2018\Card Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{ACBEE6F7-8653-4E0A-9767-BB987282A044}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Meeting Tracking</t>
   </si>
@@ -39,12 +39,15 @@
   </si>
   <si>
     <t>1.5 hr</t>
+  </si>
+  <si>
+    <t>Thursday, Oct 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -81,9 +84,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,37 +401,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D772CC27-2144-4512-AE4A-E226C9483EAC}">
-  <dimension ref="B2:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
